--- a/data/trans_camb/P1423-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.5358690537391652</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.028095889947142</v>
+        <v>3.028095889947141</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.159675626222805</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.08328629861862022</v>
+        <v>-0.1482884629994863</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05725492952538647</v>
+        <v>0.02680339199399411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.533360043304544</v>
+        <v>0.7300156104063668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.910640944404195</v>
+        <v>-2.993547077857702</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.638547778954196</v>
+        <v>-1.651059883964276</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.1915360441578709</v>
+        <v>0.04055350008446879</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.231953199553781</v>
+        <v>-1.187223180460066</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.4559004430587826</v>
+        <v>-0.5730548652059912</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9069542338809393</v>
+        <v>0.9398968698031349</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.724322835603988</v>
+        <v>1.704820348613104</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.596611004293995</v>
+        <v>2.299046044724354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.933518085501365</v>
+        <v>6.012035288586469</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.910135168872608</v>
+        <v>0.7932110994888618</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.243585010588161</v>
+        <v>2.962959109183567</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.159681178637375</v>
+        <v>7.745661147176159</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9295977911931725</v>
+        <v>0.9659657596697102</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.230520222024555</v>
+        <v>1.999567055015687</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.160762061008504</v>
+        <v>4.977854063199006</v>
       </c>
     </row>
     <row r="7">
@@ -783,22 +783,22 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.7940141414966676</v>
+        <v>-0.8328612123329385</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5236790780249373</v>
+        <v>-0.5042577392784403</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1230961433496979</v>
+        <v>-0.10302032820537</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6469751831225087</v>
+        <v>-0.656328367849578</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.296658218164583</v>
+        <v>-0.3473538629482236</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.300532885533863</v>
+        <v>0.2904883887467645</v>
       </c>
     </row>
     <row r="9">
@@ -812,22 +812,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.7489567189907932</v>
+        <v>0.7665481162300098</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.072658792577318</v>
+        <v>1.929636452752714</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.093862567827887</v>
+        <v>4.389375440191158</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.199293910843852</v>
+        <v>1.217167950396329</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.407513008230382</v>
+        <v>2.440443363171722</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>5.503763905242823</v>
+        <v>5.609456648226435</v>
       </c>
     </row>
     <row r="10">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3873493522575167</v>
+        <v>-0.7072884759501367</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.084291704245184</v>
+        <v>-2.026241722851212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9372109414071785</v>
+        <v>-0.6555083504146915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.333595941188149</v>
+        <v>-1.391807416846854</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.103933612415176</v>
+        <v>-3.007069549070035</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7102326553378435</v>
+        <v>0.8043867031798581</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2571161988046184</v>
+        <v>-0.3115529763529976</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.028085937286958</v>
+        <v>-2.021418771148303</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.845233943120368</v>
+        <v>0.6908973121155071</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.038508503277976</v>
+        <v>2.971905744941775</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4244953488470371</v>
+        <v>0.6060107944061027</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.54283349333733</v>
+        <v>3.644746865864376</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.283338307093584</v>
+        <v>2.970495879761162</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5947398911749207</v>
+        <v>0.7803732423868311</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.584501025263672</v>
+        <v>6.701613923742303</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.658232432369518</v>
+        <v>2.504237654386944</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2593152636955667</v>
+        <v>0.2825170745993482</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.559065990501875</v>
+        <v>4.439199134039226</v>
       </c>
     </row>
     <row r="13">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2286146933098051</v>
+        <v>-0.3068715913037622</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.810226452435299</v>
+        <v>-0.7888146702803567</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3948649428450072</v>
+        <v>-0.36134639841594</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.308801161240263</v>
+        <v>-0.3367353907105737</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6734988781005614</v>
+        <v>-0.6628706864799565</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08536350784232145</v>
+        <v>0.1521542741345666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1113502572469692</v>
+        <v>-0.1103088384563581</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6160395259611251</v>
+        <v>-0.6056261920525192</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2471806695596822</v>
+        <v>0.2158872058089766</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.216968074257955</v>
+        <v>2.126266313595059</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4317297163560776</v>
+        <v>0.5905263314705894</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.713550573032908</v>
+        <v>2.67981150939621</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.270275162900669</v>
+        <v>1.05440387080319</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3102720396320934</v>
+        <v>0.3734287937556173</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.544951715478837</v>
+        <v>2.619250944498567</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.21461253156246</v>
+        <v>1.249255682585798</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.155484765854207</v>
+        <v>0.1721119359923185</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.107085682794011</v>
+        <v>2.120656375154478</v>
       </c>
     </row>
     <row r="16">
@@ -1080,7 +1080,7 @@
         <v>0.1565691665932546</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.21713064138756</v>
+        <v>2.217130641387559</v>
       </c>
     </row>
     <row r="17">
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.113098464678985</v>
+        <v>-1.329991800466096</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.32004862682701</v>
+        <v>-2.376114852566579</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08579866780086473</v>
+        <v>0.03919286971702664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.381652213664001</v>
+        <v>1.035009323403584</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.921868919910344</v>
+        <v>-1.742988238039233</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.5127249405736404</v>
+        <v>-0.4245968644934664</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6843863803094663</v>
+        <v>0.5365436534252294</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.268313478415429</v>
+        <v>-1.563989335656524</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5628668188157652</v>
+        <v>0.4488179465117629</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.074328867510471</v>
+        <v>3.001519922451106</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.28345164087159</v>
+        <v>1.292697039283037</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.851695228564608</v>
+        <v>4.783207239826353</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.973327229942322</v>
+        <v>6.866147120670332</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.445670304003652</v>
+        <v>3.727949153214875</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.87138654382829</v>
+        <v>4.66298783563298</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.272323884328393</v>
+        <v>4.222481794741792</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.893294360792752</v>
+        <v>1.763236449395722</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.103673933276008</v>
+        <v>4.002150522501655</v>
       </c>
     </row>
     <row r="19">
@@ -1185,7 +1185,7 @@
         <v>0.03511651150987068</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4972747532688694</v>
+        <v>0.4972747532688692</v>
       </c>
     </row>
     <row r="20">
@@ -1196,31 +1196,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3089009982404217</v>
+        <v>-0.3606735552688889</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5906336227172894</v>
+        <v>-0.5838362607596371</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.008804244454351523</v>
+        <v>-0.02851336779763982</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1725567777039589</v>
+        <v>0.1322645152269335</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.255530508257484</v>
+        <v>-0.2513766663913581</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.08024536603062729</v>
+        <v>-0.07359504243719794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1091081759435496</v>
+        <v>0.1045160374054839</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2400829707039439</v>
+        <v>-0.3049743767428779</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1053630244773905</v>
+        <v>0.08267476801039776</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1231,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.413090406867138</v>
+        <v>1.379584107713647</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.627974156824598</v>
+        <v>0.6803503402488739</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.443615405959796</v>
+        <v>2.334103068581237</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.638818641190262</v>
+        <v>1.505420240682944</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7754542805410145</v>
+        <v>0.8027206370225898</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.155864809947993</v>
+        <v>1.05468690251302</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.13379146749783</v>
+        <v>1.182526415902772</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.499060466719631</v>
+        <v>0.4745297961541761</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.141993686657809</v>
+        <v>1.095165760032854</v>
       </c>
     </row>
     <row r="22">
@@ -1276,7 +1276,7 @@
         <v>1.032513137429733</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.761920631684031</v>
+        <v>4.76192063168403</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.309457065080212</v>
@@ -1285,7 +1285,7 @@
         <v>0.5006526495395249</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.165365378945712</v>
+        <v>2.165365378945709</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.391175199127943</v>
@@ -1294,7 +1294,7 @@
         <v>0.7894480783416105</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.548278272459694</v>
+        <v>3.548278272459696</v>
       </c>
     </row>
     <row r="23">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5858764918122652</v>
+        <v>-1.120285948609517</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.161727583457561</v>
+        <v>-1.169614743283833</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.368649666230824</v>
+        <v>2.194302479471709</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.754726673482209</v>
+        <v>-2.758445312433535</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.256495813535718</v>
+        <v>-3.136458345849988</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.110293883472587</v>
+        <v>-1.292577491602765</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7430915401661573</v>
+        <v>-0.8794980859791954</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.303632365374449</v>
+        <v>-1.422472831729542</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.317522246489793</v>
+        <v>1.265063544637873</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.763394605125705</v>
+        <v>3.885163521580318</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.53681484306502</v>
+        <v>3.154784831978695</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.372775033561976</v>
+        <v>7.25232616890353</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.9048590134104</v>
+        <v>5.210484244623906</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.344287544940175</v>
+        <v>4.393157276728819</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.43426811276593</v>
+        <v>5.540737968112775</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.648405060693178</v>
+        <v>3.721909870141447</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.95460691321705</v>
+        <v>3.052114647516587</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.683333360328784</v>
+        <v>5.592040707521925</v>
       </c>
     </row>
     <row r="25">
@@ -1381,7 +1381,7 @@
         <v>0.3437887766069957</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.585543862755622</v>
+        <v>1.585543862755621</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1168385219796168</v>
@@ -1390,7 +1390,7 @@
         <v>0.04467157966251761</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1932083893154239</v>
+        <v>0.1932083893154236</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1961756416753968</v>
@@ -1399,7 +1399,7 @@
         <v>0.1113234935723083</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.50035809104345</v>
+        <v>0.5003580910434501</v>
       </c>
     </row>
     <row r="26">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1616685948291021</v>
+        <v>-0.3081397133305294</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3277747039919726</v>
+        <v>-0.2884846302083787</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4950239402018513</v>
+        <v>0.4507318053399349</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2034883026594495</v>
+        <v>-0.2023289499198737</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2495100790726625</v>
+        <v>-0.239389462896739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08767701650909955</v>
+        <v>-0.09800708449477728</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1004033600427728</v>
+        <v>-0.1077997368999668</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1575763534597519</v>
+        <v>-0.1697476793675254</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1520407067010662</v>
+        <v>0.1580683526178034</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.196487885115134</v>
+        <v>1.998554335106483</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.071466815034597</v>
+        <v>1.837084853479831</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.691154785820481</v>
+        <v>3.837821965973804</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5328279012310019</v>
+        <v>0.5871231732526265</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4633834408000385</v>
+        <v>0.504453047177719</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5798138009210221</v>
+        <v>0.6677125425768443</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5989985519392064</v>
+        <v>0.6378251317913054</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.512500848173251</v>
+        <v>0.4976127303263662</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9729525447795895</v>
+        <v>0.99211028446202</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1499,7 @@
         <v>4.942821707028464</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.698008481697203</v>
+        <v>4.698008481697205</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.610631349726043</v>
@@ -1508,7 +1508,7 @@
         <v>3.012763506498779</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.039654131249034</v>
+        <v>4.039654131249037</v>
       </c>
     </row>
     <row r="29">
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.786995584506994</v>
+        <v>-1.634155299715938</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.530725302378114</v>
+        <v>-2.296128289849342</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2567756423664194</v>
+        <v>0.03639119114642318</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4558537371312926</v>
+        <v>0.9139553367968978</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2402828238253761</v>
+        <v>-0.09905845079224744</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5560282519330323</v>
+        <v>-0.04185481506091084</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5865227168797625</v>
+        <v>0.5944779624552654</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2135606115847829</v>
+        <v>0.1024791419858517</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.172763088989152</v>
+        <v>1.297963910680742</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.728017801671209</v>
+        <v>5.078049276218206</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.258994669857428</v>
+        <v>4.351072233011098</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.577193952705549</v>
+        <v>6.344583987373347</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.57903670812318</v>
+        <v>10.60695959982338</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.380919173050891</v>
+        <v>9.622986668002067</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.410286948871642</v>
+        <v>8.891716081188374</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.583488688919028</v>
+        <v>6.666976625899023</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.102259529351238</v>
+        <v>6.204018877028826</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.753111539364111</v>
+        <v>6.703541058238492</v>
       </c>
     </row>
     <row r="31">
@@ -1604,7 +1604,7 @@
         <v>0.383438430600866</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3644470923582029</v>
+        <v>0.3644470923582031</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.387112427452228</v>
@@ -1613,7 +1613,7 @@
         <v>0.3230122605645465</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.433109937112214</v>
+        <v>0.4331099371122143</v>
       </c>
     </row>
     <row r="32">
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2690861403695373</v>
+        <v>-0.24476980912646</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3582736452027808</v>
+        <v>-0.3218370256520226</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.01740356455896894</v>
+        <v>-0.003070832722889651</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.02936066822204649</v>
+        <v>0.05811887596822964</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01080790019356207</v>
+        <v>-0.006229059987933758</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03334342837897411</v>
+        <v>-0.01144259428558126</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04900890177159568</v>
+        <v>0.04891596886501272</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0112784540999453</v>
+        <v>0.002666999796780086</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1037132735253513</v>
+        <v>0.1061338604875807</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.143794644377911</v>
+        <v>1.26446100127365</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.022935187935908</v>
+        <v>1.128754688198279</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.686038431744291</v>
+        <v>1.525335601972374</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.027126907536404</v>
+        <v>1.018820499136525</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9262262189527041</v>
+        <v>0.9241155629477625</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8059980665959346</v>
+        <v>0.8702812278649553</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8432530636848216</v>
+        <v>0.8525599607515348</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7896494105343697</v>
+        <v>0.7629311231193747</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8895834801992594</v>
+        <v>0.8641230692789968</v>
       </c>
     </row>
     <row r="34">
@@ -1713,7 +1713,7 @@
         <v>5.419903539379099</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.938666245064566</v>
+        <v>3.938666245064563</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.14525788366755</v>
@@ -1733,31 +1733,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.55914493933622</v>
+        <v>-3.859762859357746</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.274726608735896</v>
+        <v>-5.661218849242856</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.094982589727432</v>
+        <v>-3.796196738858055</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.335402241720964</v>
+        <v>2.292163692779591</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.5390838165145512</v>
+        <v>0.148918779867271</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.4858357836704419</v>
+        <v>-0.4841660799199848</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.9284816325703598</v>
+        <v>0.4143520427059526</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.386116934672598</v>
+        <v>-1.119767571147703</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.393272755963479</v>
+        <v>-0.9766890469745634</v>
       </c>
     </row>
     <row r="36">
@@ -1768,31 +1768,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.627874513063647</v>
+        <v>3.811172335179136</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.4408563777524243</v>
+        <v>0.5690919664587856</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.261036509281229</v>
+        <v>1.948666666922805</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.20391977279934</v>
+        <v>12.89673765215164</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>10.44075050227628</v>
+        <v>10.65545193656367</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.538183503949364</v>
+        <v>7.261755917261881</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.746385218983259</v>
+        <v>7.271185054567455</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.807748921225904</v>
+        <v>5.018186225889955</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.293209272227998</v>
+        <v>4.517547823027361</v>
       </c>
     </row>
     <row r="37">
@@ -1818,7 +1818,7 @@
         <v>0.4572947391339491</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3323179720794123</v>
+        <v>0.3323179720794121</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4712511047965096</v>
@@ -1838,31 +1838,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5373215187890558</v>
+        <v>-0.5649912151953662</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7652737640858885</v>
+        <v>-0.7738516743823671</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5494638634025225</v>
+        <v>-0.5274569427033838</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1357443752629903</v>
+        <v>0.1652847534543763</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01946397544162256</v>
+        <v>0.00447112600250605</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.03508160636676698</v>
+        <v>-0.03033720634242308</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08554400280058079</v>
+        <v>0.03600155519394498</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1447321176909277</v>
+        <v>-0.1165354883758752</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1326400981422386</v>
+        <v>-0.09871726056726819</v>
       </c>
     </row>
     <row r="39">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.046954417910425</v>
+        <v>1.051763786805946</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1807150164163727</v>
+        <v>0.2222597699272801</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7484076810798939</v>
+        <v>0.5939832546967241</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.393029004155388</v>
+        <v>1.392495906166143</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.060635575182594</v>
+        <v>1.133285526471246</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9164532077678781</v>
+        <v>0.7754817007464432</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.034226683704953</v>
+        <v>0.9801471219746377</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6518261173562007</v>
+        <v>0.7098088013981148</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5979146571521916</v>
+        <v>0.6453558803749627</v>
       </c>
     </row>
     <row r="40">
@@ -1918,7 +1918,7 @@
         <v>-1.024314524752719</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.008011008312778</v>
+        <v>2.008011008312777</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>9.278185905222744</v>
@@ -1927,7 +1927,7 @@
         <v>5.417591032527283</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>6.686026553014488</v>
+        <v>6.686026553014482</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>5.562676598067523</v>
@@ -1936,7 +1936,7 @@
         <v>2.884531970211314</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>4.774191550196946</v>
+        <v>4.774191550196943</v>
       </c>
     </row>
     <row r="41">
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.423169427196085</v>
+        <v>-5.166949318021119</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.487917927782901</v>
+        <v>-5.886590342160691</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.615626789523756</v>
+        <v>-2.687925826431277</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.837734598253749</v>
+        <v>3.636597263021432</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4298346602200588</v>
+        <v>0.3463723268452488</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.28258717227258</v>
+        <v>2.133393140487158</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.896824222590856</v>
+        <v>1.77383734909283</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.5777108655445016</v>
+        <v>-0.6495659276036824</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.505822667133199</v>
+        <v>1.148100194466055</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.780247583302037</v>
+        <v>4.9230491312352</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.365544694266243</v>
+        <v>2.617837188293341</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.183893687638602</v>
+        <v>6.202595544605124</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.11417548905654</v>
+        <v>14.05135559785248</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>10.38268998936939</v>
+        <v>10.55130802468092</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>11.022658369773</v>
+        <v>10.92327006932966</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>9.539098720059796</v>
+        <v>9.168798295614081</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.702753840923376</v>
+        <v>6.507538100815519</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>7.453329467276054</v>
+        <v>7.832652262115865</v>
       </c>
     </row>
     <row r="43">
@@ -2023,7 +2023,7 @@
         <v>-0.1458013019443173</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2858210171345588</v>
+        <v>0.2858210171345587</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.9532983023437036</v>
@@ -2032,7 +2032,7 @@
         <v>0.5566368670403079</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6869637909309189</v>
+        <v>0.6869637909309183</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.6402858854031535</v>
@@ -2041,7 +2041,7 @@
         <v>0.3320209388340276</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.549528165067884</v>
+        <v>0.5495281650678837</v>
       </c>
     </row>
     <row r="44">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5866193179108278</v>
+        <v>-0.5683578091807812</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5529236847163179</v>
+        <v>-0.6005982340032373</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2637909582089791</v>
+        <v>-0.2846280148873201</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2811302759270114</v>
+        <v>0.2735016881903007</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.0455953043074063</v>
+        <v>0.01230578486892011</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1733234930189637</v>
+        <v>0.1525263819424481</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1935589664455009</v>
+        <v>0.1585521916616162</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.06174914721434736</v>
+        <v>-0.07118375477149945</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1348506462362669</v>
+        <v>0.1176991219217556</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.042225878680971</v>
+        <v>1.218676661489163</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.8098595376622858</v>
+        <v>0.6498330064750193</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.467253130829979</v>
+        <v>1.364768879494542</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.911125571083411</v>
+        <v>1.879881955173687</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.397320030736125</v>
+        <v>1.444081425990114</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.617160041635544</v>
+        <v>1.57232086901559</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.45946465050189</v>
+        <v>1.279337499993685</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.9374891688532587</v>
+        <v>0.9027739421864913</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.073472380171533</v>
+        <v>1.217674782780502</v>
       </c>
     </row>
     <row r="46">
@@ -2141,7 +2141,7 @@
         <v>2.581223824922836</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>4.6103710220947</v>
+        <v>4.610371022094699</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>2.466690793721821</v>
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1473706583713238</v>
+        <v>0.1745041423054546</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.7026901155353734</v>
+        <v>-0.7339013319506107</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.950681755539814</v>
+        <v>1.973231031279529</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.397952458246814</v>
+        <v>2.372143870278295</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.161101874440878</v>
+        <v>1.090461097080459</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>3.302899404362897</v>
+        <v>3.318006420457687</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.636874593304861</v>
+        <v>1.567472041040739</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.5450494570780762</v>
+        <v>0.5561484565426547</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>3.065163157489568</v>
+        <v>3.004865173376245</v>
       </c>
     </row>
     <row r="48">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.031486898749482</v>
+        <v>2.061003308898028</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.032653869597448</v>
+        <v>0.9479275997979816</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.991013026997642</v>
+        <v>3.918221578033777</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.280564767661856</v>
+        <v>5.146097940340361</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.978276975072592</v>
+        <v>4.014163082780509</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.871697121829182</v>
+        <v>5.886189175987182</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.37174362272131</v>
+        <v>3.303640852949239</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.245485975630459</v>
+        <v>2.224120600581322</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.704769927245287</v>
+        <v>4.677243535438367</v>
       </c>
     </row>
     <row r="49">
@@ -2246,7 +2246,7 @@
         <v>0.3392347595270692</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.6059134004226148</v>
+        <v>0.6059134004226145</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.4579597375793631</v>
@@ -2266,31 +2266,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.03732537538299653</v>
+        <v>0.04217653324523086</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2012460986744842</v>
+        <v>-0.2142283470475457</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.5435959126428151</v>
+        <v>0.5547998979843058</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2889008864755401</v>
+        <v>0.2858336914213934</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1418200306550996</v>
+        <v>0.1253296293933375</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3981196447299163</v>
+        <v>0.4013340617194652</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2753439297390223</v>
+        <v>0.2807612873786957</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.09362657702966144</v>
+        <v>0.09406726016239704</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.518458212026634</v>
+        <v>0.5084044497034338</v>
       </c>
     </row>
     <row r="51">
@@ -2301,31 +2301,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.7619213297627796</v>
+        <v>0.7607906475543299</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3908789215759995</v>
+        <v>0.3434471840805865</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.469749315833994</v>
+        <v>1.411225606865702</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7394502174774477</v>
+        <v>0.7316496587444034</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.5616969867102038</v>
+        <v>0.569180202259211</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8677768464615505</v>
+        <v>0.8504896854856682</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6618174780301129</v>
+        <v>0.657700169613737</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.446752448953268</v>
+        <v>0.4490729307736277</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.9630100421692342</v>
+        <v>0.9480762285774387</v>
       </c>
     </row>
     <row r="52">
